--- a/Kathryn Montano_.xlsx
+++ b/Kathryn Montano_.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>Date</t>
   </si>
@@ -27,49 +27,373 @@
     <t>Kathryn Montano</t>
   </si>
   <si>
-    <t>03/12/18 Mon 1:15 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:20 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:20 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:25 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:25 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:30 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:30 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:35 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:35 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:40 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:40 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:45 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:45 PM</t>
-  </si>
-  <si>
-    <t>03/15/18 Thu 1:50 PM</t>
-  </si>
-  <si>
-    <t>03/12/18 Mon 1:50 PM</t>
+    <t>03/19/18 Mon 1:10 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:10 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:10 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:15 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 11:30 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:15 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:15 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:15 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:20 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 11:35 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:20 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:20 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:20 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:25 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 11:40 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:25 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:25 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:25 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:30 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 11:45 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:30 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:30 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:30 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:35 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 11:50 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:35 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:35 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:35 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:40 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 11:55 AM</t>
+  </si>
+  <si>
+    <t>03/19/18 Mon 1:40 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:40 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:40 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:45 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 12:00 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:45 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:45 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:50 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 12:05 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:50 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:50 PM</t>
+  </si>
+  <si>
+    <t>03/22/18 Thu 1:55 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 12:10 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:55 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 1:55 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 12:15 PM</t>
+  </si>
+  <si>
+    <t>03/21/18 Wed 2:00 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 12:20 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 12:25 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 12:30 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 12:35 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 12:40 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 12:45 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 12:50 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 12:55 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 1:00 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 1:05 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 1:10 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 1:15 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 1:20 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 1:25 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 1:30 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 1:35 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 1:40 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 1:45 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 1:50 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 1:55 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 2:00 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 2:05 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 2:10 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 2:15 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 2:20 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 2:25 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 2:30 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 2:35 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 2:40 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 2:45 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 2:50 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 2:55 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 3:00 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 3:05 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 3:10 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 3:15 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 3:20 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 3:25 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 3:30 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 3:35 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 3:40 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 3:45 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 3:50 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 3:55 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 4:00 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 4:05 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 4:10 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 4:15 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 4:20 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 4:25 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 4:30 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 4:35 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 4:40 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 4:45 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 4:50 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 4:55 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 5:00 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 5:05 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 5:10 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 5:15 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 5:20 PM</t>
+  </si>
+  <si>
+    <t>03/24/18 Sat 5:25 PM</t>
+  </si>
+  <si>
+    <t>Average Students</t>
+  </si>
+  <si>
+    <t>Average Tabby</t>
+  </si>
+  <si>
+    <t>Students/Tabby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mon 1:10 PM -  Mon 3:25 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mon 4:30 PM -  Mon 5:15 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tue 1:10 PM -  Tue 2:55 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tue 3:20 PM -  Tue 5:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wed 1:10 PM -  Wed 2:35 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wed 3:20 PM -  Wed 4:05 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wed 4:45 PM -  Wed 6:05 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thu 1:15 PM -  Thu 3:25 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thu 3:50 PM -  Thu 5:05 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sat 11:30 AM -  Sat 1:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sat 1:30 PM -  Sat 2:45 PM</t>
   </si>
 </sst>
 </file>
@@ -115,14 +439,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00c0f7f4"/>
-        <bgColor rgb="00c0f7f4"/>
+        <fgColor rgb="00ffffff"/>
+        <bgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-        <bgColor rgb="00ffffff"/>
+        <fgColor rgb="00c0f7f4"/>
+        <bgColor rgb="00c0f7f4"/>
       </patternFill>
     </fill>
   </fills>
@@ -493,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,9 +831,18 @@
     <col customWidth="1" max="5" min="5" width="20"/>
     <col customWidth="1" max="6" min="6" width="20"/>
     <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="9" min="9" width="20"/>
+    <col customWidth="1" max="10" min="10" width="20"/>
+    <col customWidth="1" max="11" min="11" width="20"/>
+    <col customWidth="1" max="13" min="13" width="20"/>
+    <col customWidth="1" max="14" min="14" width="20"/>
+    <col customWidth="1" max="15" min="15" width="20"/>
+    <col customWidth="1" max="17" min="17" width="20"/>
+    <col customWidth="1" max="18" min="18" width="20"/>
+    <col customWidth="1" max="19" min="19" width="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -530,8 +863,38 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="n"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1" t="n"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -546,156 +909,1224 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="n"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1" t="n"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="n"/>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="n"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="K4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="n"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="n"/>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" s="1" t="n"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1" t="n"/>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="n"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>5</v>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="n"/>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="n"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="K6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1" t="n"/>
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1" t="n"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="n"/>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="n"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="O7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="n"/>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="n"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="n"/>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="n"/>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="n"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="O8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1" t="n"/>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1" t="n"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="n"/>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
+      <c r="G9" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="H9" s="1" t="n"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="n"/>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="n"/>
+      <c r="P9" s="1" t="n"/>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1" t="n"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="n"/>
+      <c r="Q10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="n"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="n"/>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1" t="n"/>
+      <c r="Q11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" s="1" t="n"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="n"/>
+      <c r="Q12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="n"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1" t="n"/>
+      <c r="Q13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1" t="n"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="Q14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1" t="n"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="Q15" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="n"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="Q16" t="s">
+        <v>53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" s="1" t="n"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="Q17" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1" t="n"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="Q18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1" t="n"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1" t="n"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="Q20" t="s">
+        <v>57</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="n"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="Q21" t="s">
+        <v>58</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" s="1" t="n"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="Q22" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1" t="n"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="Q23" t="s">
+        <v>60</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1" t="n"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="Q24" t="s">
+        <v>61</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1" t="n"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="Q25" t="s">
+        <v>62</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1" t="n"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="Q26" t="s">
+        <v>63</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="n"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="Q27" t="s">
+        <v>64</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" s="1" t="n"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="Q28" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" s="1" t="n"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="Q29" t="s">
+        <v>66</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1" t="n"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="Q30" t="s">
+        <v>67</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1" t="n"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="Q31" t="s">
+        <v>68</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1" t="n"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="Q32" t="s">
+        <v>69</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1" t="n"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="Q33" t="s">
+        <v>70</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1" t="n"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="Q34" t="s">
+        <v>71</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1" t="n"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="Q35" t="s">
+        <v>72</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="n"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="Q36" t="s">
+        <v>73</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1" t="n"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="Q37" t="s">
+        <v>74</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1" t="n"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="Q38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1" t="n"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="Q39" t="s">
+        <v>76</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1" t="n"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="Q40" t="s">
+        <v>77</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" s="1" t="n"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="Q41" t="s">
+        <v>78</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1" t="n"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="Q42" t="s">
+        <v>79</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" s="1" t="n"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="Q43" t="s">
+        <v>80</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1" t="n"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="Q44" t="s">
+        <v>81</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1" t="n"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="Q45" t="s">
+        <v>82</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1" t="n"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="Q46" t="s">
+        <v>83</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1" t="n"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="Q47" t="s">
+        <v>84</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1" t="n"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="Q48" t="s">
+        <v>85</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1" t="n"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="Q49" t="s">
+        <v>86</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1" t="n"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="Q50" t="s">
+        <v>87</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1" t="n"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="Q51" t="s">
+        <v>88</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1" t="n"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="Q52" t="s">
+        <v>89</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1" t="n"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="Q53" t="s">
+        <v>90</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1" t="n"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="Q54" t="s">
+        <v>91</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1" t="n"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="Q55" t="s">
+        <v>92</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1" t="n"/>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="Q56" t="s">
+        <v>93</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1" t="n"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="Q57" t="s">
+        <v>94</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1" t="n"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="Q58" t="s">
+        <v>95</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1" t="n"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="Q59" t="s">
+        <v>96</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1" t="n"/>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="Q60" t="s">
+        <v>97</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1" t="n"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="Q61" t="s">
+        <v>98</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1" t="n"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="Q62" t="s">
+        <v>99</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1" t="n"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="Q63" t="s">
+        <v>100</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1" t="n"/>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="Q64" t="s">
+        <v>101</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1" t="n"/>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="Q65" t="s">
+        <v>102</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1" t="n"/>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="Q66" t="s">
+        <v>103</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1" t="n"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="Q67" t="s">
+        <v>104</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1" t="n"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="Q68" t="s">
+        <v>105</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1" t="n"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="Q69" t="s">
+        <v>106</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1" t="n"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="Q70" t="s">
+        <v>107</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1" t="n"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="Q71" t="s">
+        <v>108</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1" t="n"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="Q72" t="s">
+        <v>109</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1" t="n"/>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="Q73" t="s">
+        <v>110</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1" t="n"/>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="Q74" t="s">
+        <v>111</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -708,14 +2139,312 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
+    <col customWidth="1" max="5" min="5" width="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4"/>
+    <row r="5" spans="1:4"/>
+    <row r="6" spans="1:4"/>
+    <row r="7" spans="1:4"/>
+    <row r="8" spans="1:4"/>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4"/>
+    <row r="13" spans="1:4"/>
+    <row r="14" spans="1:4"/>
+    <row r="15" spans="1:4"/>
+    <row r="16" spans="1:4"/>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4"/>
+    <row r="22" spans="1:4"/>
+    <row r="23" spans="1:4"/>
+    <row r="24" spans="1:4"/>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4"/>
+    <row r="29" spans="1:4"/>
+    <row r="30" spans="1:4"/>
+    <row r="31" spans="1:4"/>
+    <row r="32" spans="1:4"/>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4"/>
+    <row r="35" spans="1:4"/>
+    <row r="36" spans="1:4"/>
+    <row r="37" spans="1:4"/>
+    <row r="38" spans="1:4"/>
+    <row r="39" spans="1:4"/>
+    <row r="40" spans="1:4"/>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4"/>
+    <row r="45" spans="1:4"/>
+    <row r="46" spans="1:4"/>
+    <row r="47" spans="1:4"/>
+    <row r="48" spans="1:4"/>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4"/>
+    <row r="51" spans="1:4"/>
+    <row r="52" spans="1:4"/>
+    <row r="53" spans="1:4"/>
+    <row r="54" spans="1:4"/>
+    <row r="55" spans="1:4"/>
+    <row r="56" spans="1:4"/>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Kathryn Montano_.xlsx
+++ b/Kathryn Montano_.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -363,13 +363,64 @@
     <t>Students/Tabby</t>
   </si>
   <si>
+    <t>Weekly Summary</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mon 1:10 PM -  Mon 3:25 PM</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mon 4:30 PM -  Mon 5:15 PM</t>
   </si>
   <si>
+    <t>Mon Day Summary</t>
+  </si>
+  <si>
+    <t>Mon Night Average</t>
+  </si>
+  <si>
+    <t>Tue Day Summary</t>
+  </si>
+  <si>
+    <t>Tue Night Average</t>
+  </si>
+  <si>
+    <t>Wed Day Summary</t>
+  </si>
+  <si>
+    <t>Wed Night Average</t>
+  </si>
+  <si>
+    <t>Thu Day Summary</t>
+  </si>
+  <si>
+    <t>Thu Night Average</t>
+  </si>
+  <si>
+    <t>Fri Day Summary</t>
+  </si>
+  <si>
+    <t>Fri Night Average</t>
+  </si>
+  <si>
+    <t>Sat Day Summary</t>
+  </si>
+  <si>
+    <t>Sat Night Average</t>
+  </si>
+  <si>
+    <t>Sun Day Summary</t>
+  </si>
+  <si>
+    <t>Sun Night Average</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Tue 1:10 PM -  Tue 2:55 PM</t>
+  </si>
+  <si>
+    <t>Weekly Average</t>
   </si>
   <si>
     <t xml:space="preserve"> Tue 3:20 PM -  Tue 5:00 PM</t>
@@ -413,7 +464,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -449,6 +500,16 @@
         <bgColor rgb="00c0f7f4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f7d28a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c6c0ed"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -462,13 +523,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -2139,7 +2202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,9 +2215,13 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="7" min="7" width="16"/>
+    <col customWidth="1" max="8" min="8" width="16"/>
+    <col customWidth="1" max="9" min="9" width="16"/>
+    <col customWidth="1" max="10" min="10" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2167,10 +2234,13 @@
       <c r="D1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" t="n">
         <v>2.36</v>
@@ -2181,10 +2251,22 @@
       <c r="D2" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" t="n">
         <v>2.1</v>
@@ -2195,13 +2277,76 @@
       <c r="D3" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="4" spans="1:4"/>
-    <row r="5" spans="1:4"/>
-    <row r="6" spans="1:4"/>
-    <row r="7" spans="1:4"/>
-    <row r="8" spans="1:4"/>
-    <row r="9" spans="1:4">
+      <c r="G3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="7" t="n"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="G4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="7" t="n"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="G5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="7" t="n"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="G6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="7" t="n"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="G7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="7" t="n"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="G8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2214,10 +2359,18 @@
       <c r="D9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="7" t="n"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B10" t="n">
         <v>2.18</v>
@@ -2228,10 +2381,19 @@
       <c r="D10" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B11" t="n">
         <v>2.1</v>
@@ -2243,12 +2405,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:4"/>
-    <row r="13" spans="1:4"/>
-    <row r="14" spans="1:4"/>
-    <row r="15" spans="1:4"/>
-    <row r="16" spans="1:4"/>
-    <row r="17" spans="1:4">
+    <row r="12" spans="1:10"/>
+    <row r="13" spans="1:10"/>
+    <row r="14" spans="1:10"/>
+    <row r="15" spans="1:10"/>
+    <row r="16" spans="1:10"/>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2262,9 +2424,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B18" t="n">
         <v>1.61</v>
@@ -2276,9 +2438,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B19" t="n">
         <v>2.1</v>
@@ -2290,9 +2452,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B20" t="n">
         <v>1.59</v>
@@ -2304,11 +2466,11 @@
         <v>0.55</v>
       </c>
     </row>
-    <row r="21" spans="1:4"/>
-    <row r="22" spans="1:4"/>
-    <row r="23" spans="1:4"/>
-    <row r="24" spans="1:4"/>
-    <row r="25" spans="1:4">
+    <row r="21" spans="1:10"/>
+    <row r="22" spans="1:10"/>
+    <row r="23" spans="1:10"/>
+    <row r="24" spans="1:10"/>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2322,9 +2484,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B26" t="n">
         <v>2.59</v>
@@ -2336,9 +2498,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B27" t="n">
         <v>2.69</v>
@@ -2350,12 +2512,12 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="28" spans="1:4"/>
-    <row r="29" spans="1:4"/>
-    <row r="30" spans="1:4"/>
-    <row r="31" spans="1:4"/>
-    <row r="32" spans="1:4"/>
-    <row r="33" spans="1:4">
+    <row r="28" spans="1:10"/>
+    <row r="29" spans="1:10"/>
+    <row r="30" spans="1:10"/>
+    <row r="31" spans="1:10"/>
+    <row r="32" spans="1:10"/>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2369,14 +2531,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:4"/>
-    <row r="35" spans="1:4"/>
-    <row r="36" spans="1:4"/>
-    <row r="37" spans="1:4"/>
-    <row r="38" spans="1:4"/>
-    <row r="39" spans="1:4"/>
-    <row r="40" spans="1:4"/>
-    <row r="41" spans="1:4">
+    <row r="34" spans="1:10"/>
+    <row r="35" spans="1:10"/>
+    <row r="36" spans="1:10"/>
+    <row r="37" spans="1:10"/>
+    <row r="38" spans="1:10"/>
+    <row r="39" spans="1:10"/>
+    <row r="40" spans="1:10"/>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2390,9 +2552,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B42" t="n">
         <v>1.16</v>
@@ -2404,9 +2566,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B43" t="n">
         <v>0.88</v>
@@ -2418,12 +2580,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="44" spans="1:4"/>
-    <row r="45" spans="1:4"/>
-    <row r="46" spans="1:4"/>
-    <row r="47" spans="1:4"/>
-    <row r="48" spans="1:4"/>
-    <row r="49" spans="1:4">
+    <row r="44" spans="1:10"/>
+    <row r="45" spans="1:10"/>
+    <row r="46" spans="1:10"/>
+    <row r="47" spans="1:10"/>
+    <row r="48" spans="1:10"/>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2437,13 +2599,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:4"/>
-    <row r="51" spans="1:4"/>
-    <row r="52" spans="1:4"/>
-    <row r="53" spans="1:4"/>
-    <row r="54" spans="1:4"/>
-    <row r="55" spans="1:4"/>
-    <row r="56" spans="1:4"/>
+    <row r="50" spans="1:10"/>
+    <row r="51" spans="1:10"/>
+    <row r="52" spans="1:10"/>
+    <row r="53" spans="1:10"/>
+    <row r="54" spans="1:10"/>
+    <row r="55" spans="1:10"/>
+    <row r="56" spans="1:10"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Kathryn Montano_.xlsx
+++ b/Kathryn Montano_.xlsx
@@ -452,7 +452,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -462,6 +462,14 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="15"/>
     </font>
   </fonts>
   <fills count="9">
@@ -523,15 +531,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -2215,10 +2225,10 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="7" min="7" width="16"/>
-    <col customWidth="1" max="8" min="8" width="16"/>
-    <col customWidth="1" max="9" min="9" width="16"/>
-    <col customWidth="1" max="10" min="10" width="16"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="20"/>
+    <col customWidth="1" max="9" min="9" width="20"/>
+    <col customWidth="1" max="10" min="10" width="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2234,7 +2244,7 @@
       <c r="D1" t="s">
         <v>114</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2277,72 +2287,72 @@
       <c r="D3" t="n">
         <v>0.68</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="7" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="7" t="n"/>
+      <c r="J3" s="8" t="n"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <v>0.58</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="7" t="n"/>
+      <c r="J4" s="8" t="n"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>0.48</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="7" t="n"/>
+      <c r="J5" s="8" t="n"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="7" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="7" t="n"/>
+      <c r="J6" s="8" t="n"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="6" t="n"/>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="7" t="n"/>
+      <c r="I7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="7" t="n"/>
+      <c r="J7" s="8" t="n"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="7" t="n"/>
+      <c r="I8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="8" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2359,14 +2369,14 @@
       <c r="D9" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="7" t="n"/>
+      <c r="I9" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J9" s="7" t="n"/>
+      <c r="J9" s="8" t="n"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -2381,13 +2391,14 @@
       <c r="D10" t="n">
         <v>0.57</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="9" t="n">
         <v>0.61</v>
       </c>
-      <c r="J10" t="n">
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="9" t="n">
         <v>0.46</v>
       </c>
     </row>
